--- a/SWP/Week1/Docs/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/Week1/Docs/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Deadline</t>
   </si>
   <si>
-    <t>1.Mọi thành viên phải đăng ký account trên git hub bằng mail fpt.edu.vn
+    <t xml:space="preserve">1.Mọi thành viên phải đăng ký account trên git hub bằng mail fpt.edu.vn
 2.Mọi thành viên đều phải tự viết doc phần SRS, SDS liên quan đến màn hình được phân
 3.Mọi thành viên đều phải code
 4.Các thành viên đều có nhiệm vụ đào tạo cho nhau để viết doc, code được.
@@ -42,7 +42,7 @@
 6. Tất cả các thành viên trong nhóm đều có cấu trúc thư mục dự án giống như thầy đã hướng dẫn. TL có trách nhiệm kiểm tra thành viên trong nhóm có cấu trúc thư mục như thầy hướng dẫn chưa và báo cáo vào nhóm.
 7. TL tổ chức training các thành viên qua Ggmeet, TL code mẫu trên màn hình cho các thành viên xem và làm đi làm lại ít nhất 3 lần. Record lại buổi họp để chứng minh các thành viên đều được training và có tham gia
 8. Không thể dựa vào trí nhớ của các thành viên mà hãy dựa vào các công cụ ghi chép : node, record,... để làm thành tài liệu, video tham khảo.
-Công việc cần làm</t>
+</t>
   </si>
   <si>
     <t>Tạo database</t>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Thống nhất quy tắc làm việc nhóm</t>
+  </si>
+  <si>
+    <t>Traning làm SRS và SDS</t>
+  </si>
+  <si>
+    <t>Tạo và đồng bộ hệ thống folder của cả nhóm</t>
+  </si>
+  <si>
+    <t>Thiết kế figma</t>
   </si>
 </sst>
 </file>
@@ -155,12 +164,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +184,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,10 +208,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,119 +321,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,11 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +557,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +606,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -615,172 +628,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1105,16 +1107,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="35.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="11.2222222222222" customWidth="1"/>
@@ -1605,7 +1607,6 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1632,6 @@
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1657,6 @@
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1682,6 @@
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1707,6 @@
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22"/>
       <c r="D22" t="s">
         <v>24</v>
       </c>
@@ -1735,7 +1732,6 @@
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1752,6 @@
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>24</v>
       </c>
@@ -1784,6 +1779,57 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1795,14 +1841,14 @@
     <mergeCell ref="G1:L24"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
-      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11:C15 C16:C29">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D2:D8 D10:D13 D14:D17 D18:D24 D25:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D2:D8 D10:D13 D14:D17 D18:D24 D25:D26 D27:D28">
       <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
+      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
